--- a/biology/Médecine/Centre_de_référence_sur_les_agents_tératogènes/Centre_de_référence_sur_les_agents_tératogènes.xlsx
+++ b/biology/Médecine/Centre_de_référence_sur_les_agents_tératogènes/Centre_de_référence_sur_les_agents_tératogènes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_de_r%C3%A9f%C3%A9rence_sur_les_agents_t%C3%A9ratog%C3%A8nes</t>
+          <t>Centre_de_référence_sur_les_agents_tératogènes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CRAT (Centre de Référence sur les Agents Tératogènes) est une structure publique financée par l'AP-HP et ANSM[1],[2]. Créé en 1975 et situé au sein de l'Hôpital Armand-Trousseau à Paris, le centre a pour principale mission d'informer les professionnels de santé (médecin, pharmacien, sage-femme...) sur les effets tératogènes de certains médicaments, vaccins, irradiation médicale (et produits de contrastes) ainsi que sur les addictions, pendant la grossesse et l’allaitement, que l'exposition soit maternelle et/ou paternelle. Son site internet est ouvert au public.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CRAT (Centre de Référence sur les Agents Tératogènes) est une structure publique financée par l'AP-HP et ANSM,. Créé en 1975 et situé au sein de l'Hôpital Armand-Trousseau à Paris, le centre a pour principale mission d'informer les professionnels de santé (médecin, pharmacien, sage-femme...) sur les effets tératogènes de certains médicaments, vaccins, irradiation médicale (et produits de contrastes) ainsi que sur les addictions, pendant la grossesse et l’allaitement, que l'exposition soit maternelle et/ou paternelle. Son site internet est ouvert au public.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_de_r%C3%A9f%C3%A9rence_sur_les_agents_t%C3%A9ratog%C3%A8nes</t>
+          <t>Centre_de_référence_sur_les_agents_tératogènes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Gouvernance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CRAT est indépendant de l’industrie pharmaceutique, et pour cela exclusivement public. 
-Son site internet (où toute forme de publicité est interdite) a été créé avec l'aide du Fonds de Promotion de l’Information Médicale et Médico-économique (FOPIM) grâce à une subvention de 3 ans accordée au CRAT en novembre 2004  [3],[4].
+Son site internet (où toute forme de publicité est interdite) a été créé avec l'aide du Fonds de Promotion de l’Information Médicale et Médico-économique (FOPIM) grâce à une subvention de 3 ans accordée au CRAT en novembre 2004  ,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_de_r%C3%A9f%C3%A9rence_sur_les_agents_t%C3%A9ratog%C3%A8nes</t>
+          <t>Centre_de_référence_sur_les_agents_tératogènes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,24 +557,129 @@
           <t>Médicaments tératogènes et mises en garde</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le CRAT formule trois types de mises en garde, en fonction du type de médicaments tératogènes[5],[6].
-Médicaments tératogènes à proscrire pendant au moins les 2 premiers mois de grossesse, et si possible au-delà, sauf indication exceptionnelle
-Acide valproïque
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CRAT formule trois types de mises en garde, en fonction du type de médicaments tératogènes,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre_de_référence_sur_les_agents_tératogènes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_de_r%C3%A9f%C3%A9rence_sur_les_agents_t%C3%A9ratog%C3%A8nes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Médicaments tératogènes et mises en garde</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Médicaments tératogènes à proscrire pendant au moins les 2 premiers mois de grossesse, et si possible au-delà, sauf indication exceptionnelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Acide valproïque
 Acitrétine
 Isotrétinoïne par voie orale
 Misoprostol
 Mycophénolate
 Thalidomide
-Antimitotiques : Méthotrexate, Cyclophosphamide...
-Médicaments tératogènes utilisables en cours de grossesse en l’absence d’alternative thérapeutique plus sûre
-Lithium
+Antimitotiques : Méthotrexate, Cyclophosphamide...</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_de_référence_sur_les_agents_tératogènes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_de_r%C3%A9f%C3%A9rence_sur_les_agents_t%C3%A9ratog%C3%A8nes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Médicaments tératogènes et mises en garde</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Médicaments tératogènes utilisables en cours de grossesse en l’absence d’alternative thérapeutique plus sûre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lithium
 Carbimazole
 anticoagulants oraux (AVK) : Warfarine, Acénocoumarol, Fluindione
-Certains antiépileptiques : Carbamazépine, Phénobarbital, Topiramate
-Les médicaments formellement contre-indiqués pendant la grossesse
-inhibiteurs de l’enzyme de conversion (IEC) et antagonistes de l’angiotensine 2 : Captopril, Énalapril, Losartan...</t>
+Certains antiépileptiques : Carbamazépine, Phénobarbital, Topiramate</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Centre_de_référence_sur_les_agents_tératogènes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_de_r%C3%A9f%C3%A9rence_sur_les_agents_t%C3%A9ratog%C3%A8nes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Médicaments tératogènes et mises en garde</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les médicaments formellement contre-indiqués pendant la grossesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>inhibiteurs de l’enzyme de conversion (IEC) et antagonistes de l’angiotensine 2 : Captopril, Énalapril, Losartan...</t>
         </is>
       </c>
     </row>
